--- a/StructureDefinition-svc-bundle-updated.xlsx
+++ b/StructureDefinition-svc-bundle-updated.xlsx
@@ -765,7 +765,7 @@
     <t>SVC_Composition_Entry</t>
   </si>
   <si>
-    <t xml:space="preserve">Composition {http://fhir.org/guides/who/svc-rc1/StructureDefinition/svc-pha-composition-updated}
+    <t xml:space="preserve">Composition {http://fhir.org/guides/who/svc-rc1/StructureDefinition/svc-composition-updated}
 </t>
   </si>
   <si>

--- a/StructureDefinition-svc-bundle-updated.xlsx
+++ b/StructureDefinition-svc-bundle-updated.xlsx
@@ -791,7 +791,7 @@
 EventActivity</t>
   </si>
   <si>
-    <t xml:space="preserve">Provenance {http://fhir.org/guides/who/svc-rc1/StructureDefinition/svc-provenance-digitalupdated}
+    <t xml:space="preserve">Provenance {http://fhir.org/guides/who/svc-rc1/StructureDefinition/svc-provenance-digital-updated}
 </t>
   </si>
   <si>

--- a/StructureDefinition-svc-bundle-updated.xlsx
+++ b/StructureDefinition-svc-bundle-updated.xlsx
@@ -735,6 +735,32 @@
 This outcome is not used for error responses in batch/transaction, only for hints and warnings. In a batch operation, the error will be in Bundle.entry.response, and for transaction, there will be a single OperationOutcome instead of a bundle in the case of an error.</t>
   </si>
   <si>
+    <t>SVC_Composition_Entry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Composition {http://fhir.org/guides/who/svc-rc1/StructureDefinition/svc-composition-updated}
+</t>
+  </si>
+  <si>
+    <t>A set of resources composed into a single coherent clinical statement with clinical attestation</t>
+  </si>
+  <si>
+    <t>A set of healthcare-related information that is assembled together into a single logical package that provides a single coherent statement of meaning, establishes its own context and that has clinical attestation with regard to who is making the statement. A Composition defines the structure and narrative content necessary for a document. However, a Composition alone does not constitute a document. Rather, the Composition must be the first entry in a Bundle where Bundle.type=document, and any other resources referenced from Composition must be included as subsequent entries in the Bundle (for example Patient, Practitioner, Encounter, etc.).</t>
+  </si>
+  <si>
+    <t>While the focus of this specification is on patient-specific clinical statements, this resource can also apply to other healthcare-related statements such as study protocol designs, healthcare invoices and other activities that are not necessarily patient-specific or clinical.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+  </si>
+  <si>
+    <t>Document[classCode="DOC" and moodCode="EVN" and isNormalAct()]</t>
+  </si>
+  <si>
+    <t>ClinicalDocument</t>
+  </si>
+  <si>
     <t>SVC_Patient_Entry</t>
   </si>
   <si>
@@ -752,36 +778,10 @@
     <t>Demographics and other administrative information about an individual or animal receiving care or other health-related services.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>Patient[classCode=PAT]</t>
   </si>
   <si>
     <t>ClinicalDocument.recordTarget.patientRole</t>
-  </si>
-  <si>
-    <t>SVC_Composition_Entry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Composition {http://fhir.org/guides/who/svc-rc1/StructureDefinition/svc-composition-updated}
-</t>
-  </si>
-  <si>
-    <t>A set of resources composed into a single coherent clinical statement with clinical attestation</t>
-  </si>
-  <si>
-    <t>A set of healthcare-related information that is assembled together into a single logical package that provides a single coherent statement of meaning, establishes its own context and that has clinical attestation with regard to who is making the statement. A Composition defines the structure and narrative content necessary for a document. However, a Composition alone does not constitute a document. Rather, the Composition must be the first entry in a Bundle where Bundle.type=document, and any other resources referenced from Composition must be included as subsequent entries in the Bundle (for example Patient, Practitioner, Encounter, etc.).</t>
-  </si>
-  <si>
-    <t>While the focus of this specification is on patient-specific clinical statements, this resource can also apply to other healthcare-related statements such as study protocol designs, healthcare invoices and other activities that are not necessarily patient-specific or clinical.</t>
-  </si>
-  <si>
-    <t>Document[classCode="DOC" and moodCode="EVN" and isNormalAct()]</t>
-  </si>
-  <si>
-    <t>ClinicalDocument</t>
   </si>
   <si>
     <t>SVC_Provenance_Entry</t>
@@ -6986,13 +6986,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
         <v>153</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>228</v>
+        <v>40</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7002,7 +7002,7 @@
         <v>49</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>40</v>
@@ -7011,15 +7011,17 @@
         <v>40</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>40</v>
@@ -10514,13 +10516,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="87" hidden="true">
+    <row r="87">
       <c r="A87" t="s" s="2">
         <v>153</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>40</v>
+        <v>236</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -10530,7 +10532,7 @@
         <v>49</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>40</v>
@@ -10539,17 +10541,15 @@
         <v>40</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M87" t="s" s="2">
         <v>239</v>
       </c>
+      <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>40</v>
